--- a/PathFinders_oteller.xlsx
+++ b/PathFinders_oteller.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="otel" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="iller" sheetId="2" r:id="rId5"/>
+    <sheet r:id="rId1" sheetId="1" name="otel"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="496">
   <si>
     <t>SIRA NO:</t>
   </si>
@@ -36,6 +38,12 @@
   </si>
   <si>
     <t>FİYAT 3</t>
+  </si>
+  <si>
+    <t>kamp alanı</t>
+  </si>
+  <si>
+    <t>kamp fiyat</t>
   </si>
   <si>
     <t>1.</t>
@@ -56,6 +64,9 @@
 Telefon: +90(322)3630707</t>
   </si>
   <si>
+    <t>Örcün Kamp Alanı</t>
+  </si>
+  <si>
     <t>2.</t>
   </si>
   <si>
@@ -74,6 +85,9 @@
 Telefon: +90 416 202 0102</t>
   </si>
   <si>
+    <t>Gölbaşı Gölleri Tabiat Parkı Kamp Alanı</t>
+  </si>
+  <si>
     <t>3.</t>
   </si>
   <si>
@@ -92,6 +106,9 @@
 Telefon: +90 2725357575</t>
   </si>
   <si>
+    <t>Afyon Belediyesi Karavan Parkı</t>
+  </si>
+  <si>
     <t>4.</t>
   </si>
   <si>
@@ -110,6 +127,9 @@
 Telefon: +90 4722159950</t>
   </si>
   <si>
+    <t>Lalezar Camping</t>
+  </si>
+  <si>
     <t>5.</t>
   </si>
   <si>
@@ -127,6 +147,9 @@
     <t>Amasya hotels : Yusuf Yekeler Cd 25,  5500,  Amasya,  Türkiye</t>
   </si>
   <si>
+    <t>Boraboy Gölü Kamp Alanı</t>
+  </si>
+  <si>
     <t>6.</t>
   </si>
   <si>
@@ -144,6 +167,9 @@
 </t>
   </si>
   <si>
+    <t>Çamkoru Tabiat Parkı</t>
+  </si>
+  <si>
     <t>7.</t>
   </si>
   <si>
@@ -162,6 +188,9 @@
 Telefon: +90 5435120707</t>
   </si>
   <si>
+    <t>Deadwood</t>
+  </si>
+  <si>
     <t>8.</t>
   </si>
   <si>
@@ -178,6 +207,9 @@
     <t>KORU BUTİK OTEL : Yeni Mahalle Orman Yolu Sokak Artvin Artvin,  Artvin,  Türkiye</t>
   </si>
   <si>
+    <t>Borçka Karagöl Kamp Alanı</t>
+  </si>
+  <si>
     <t>9.</t>
   </si>
   <si>
@@ -196,6 +228,9 @@
 Telefon: +90 5439784038</t>
   </si>
   <si>
+    <t>Davutlar Gençlik Karavan ve Çadır Kampı</t>
+  </si>
+  <si>
     <t>10.</t>
   </si>
   <si>
@@ -209,6 +244,9 @@
   </si>
   <si>
     <t>Edbel Otel Ve Apart : Altinkum Mahallesi Atatürk Caddesi No:69 Akçay Edremit Balikesir,  Balıkesir,  Türkiye</t>
+  </si>
+  <si>
+    <t>Aldırmaz Kamping</t>
   </si>
   <si>
     <t>11.</t>
@@ -228,6 +266,9 @@
 Telefon: +90(228)2120555</t>
   </si>
   <si>
+    <t>Küçükelmalı Tabiat parkı</t>
+  </si>
+  <si>
     <t>12.</t>
   </si>
   <si>
@@ -245,6 +286,9 @@
 Telefon: +90(426)2150444</t>
   </si>
   <si>
+    <t>Kawar</t>
+  </si>
+  <si>
     <t>13.</t>
   </si>
   <si>
@@ -263,6 +307,9 @@
 Telefon: +90(434)2261000</t>
   </si>
   <si>
+    <t>Göl Piknik ve Kamp Alanı</t>
+  </si>
+  <si>
     <t>14.</t>
   </si>
   <si>
@@ -279,6 +326,9 @@
     <t>Sarot Thermal Palace Tatil Koyu : Taskesti,  14802,  Bolu,  Türkiye</t>
   </si>
   <si>
+    <t>Yedigöller Milli Parkı Kamp Alanı</t>
+  </si>
+  <si>
     <t>15.</t>
   </si>
   <si>
@@ -296,6 +346,9 @@
     <t>Hotel Lago Di Salda : Salda Golu Kenari,  15500,  Burdur,  Türkiye</t>
   </si>
   <si>
+    <t>Salda Gölü Kamp Alanı</t>
+  </si>
+  <si>
     <t>16.</t>
   </si>
   <si>
@@ -313,6 +366,9 @@
 Telefon: +90(224)554 65 65</t>
   </si>
   <si>
+    <t>Keles Göl Kamp</t>
+  </si>
+  <si>
     <t>17.</t>
   </si>
   <si>
@@ -331,6 +387,9 @@
 Telefon: +90(286)2171024</t>
   </si>
   <si>
+    <t>Kamp OLive</t>
+  </si>
+  <si>
     <t>18.</t>
   </si>
   <si>
@@ -348,6 +407,9 @@
 Telefon: +90 3762135757</t>
   </si>
   <si>
+    <t>Hazım Dağlı Glamping</t>
+  </si>
+  <si>
     <t>19.</t>
   </si>
   <si>
@@ -366,6 +428,9 @@
 Telefon: +90(364)2138515</t>
   </si>
   <si>
+    <t>Abdullah Yaylası Tabiat Parkı</t>
+  </si>
+  <si>
     <t>20.</t>
   </si>
   <si>
@@ -383,6 +448,9 @@
 Telefon: +90 2582661026</t>
   </si>
   <si>
+    <t>Tepe Camping</t>
+  </si>
+  <si>
     <t>21.</t>
   </si>
   <si>
@@ -401,6 +469,9 @@
 Telefon: +90 4122377237</t>
   </si>
   <si>
+    <t>Ekinveren, Göksu Barajı, 21750 Çınar/Diyarbakır</t>
+  </si>
+  <si>
     <t>22.</t>
   </si>
   <si>
@@ -417,13 +488,7 @@
 Telefon: +90 2842124445</t>
   </si>
   <si>
-    <t>902 tl</t>
-  </si>
-  <si>
-    <t>2.184 tl</t>
-  </si>
-  <si>
-    <t>3.174 tl</t>
+    <t>Sığırcı Gölü, İpsala/Edirne</t>
   </si>
   <si>
     <t>23.</t>
@@ -444,13 +509,7 @@
 Telefon: +90(532)2008009</t>
   </si>
   <si>
-    <t>920 tl</t>
-  </si>
-  <si>
-    <t>2.500 tl</t>
-  </si>
-  <si>
-    <t>2.898 tl</t>
+    <t>Hazar Gölü, Elazığ</t>
   </si>
   <si>
     <t>24.</t>
@@ -471,13 +530,7 @@
 Telefon: +90 4462267070</t>
   </si>
   <si>
-    <t>914 tl</t>
-  </si>
-  <si>
-    <t>1.800 tl</t>
-  </si>
-  <si>
-    <t>2.564 tl</t>
+    <t>Palat Gölü, 24402 Kayabaşı/Kemah/Erzincan</t>
   </si>
   <si>
     <t>25.</t>
@@ -496,13 +549,7 @@
     <t>Hilton Garden Inn Erzurum: Omer Nasuhi Bilmen Mah., Açelya Sk. No:4,  25100,  Erzurum,  Türkiye</t>
   </si>
   <si>
-    <t>703 tl</t>
-  </si>
-  <si>
-    <t>1.760 tl</t>
-  </si>
-  <si>
-    <t>2.912 tl</t>
+    <t>Palandöken Dağı, Yunusemre, 25080 Palandöken/Erzurum</t>
   </si>
   <si>
     <t>26.</t>
@@ -522,13 +569,7 @@
 Telefon: +90 2222351111</t>
   </si>
   <si>
-    <t>940 tl</t>
-  </si>
-  <si>
-    <t>2.592 tl</t>
-  </si>
-  <si>
-    <t>3.457 tl</t>
+    <t>Musaözü Göleti, 26005 Tepebaşı/Eskişehir</t>
   </si>
   <si>
     <t>27.</t>
@@ -549,13 +590,7 @@
 Telefon: +90(342)2110000</t>
   </si>
   <si>
-    <t>759 tl</t>
-  </si>
-  <si>
-    <t>2.000 tl</t>
-  </si>
-  <si>
-    <t>3.204 tl</t>
+    <t>Rumkale, Kasaba Köyü Yolu, 27970 Yavuzeli/Gaziantep</t>
   </si>
   <si>
     <t>28.</t>
@@ -576,13 +611,7 @@
 Telefon: +90 04543334444</t>
   </si>
   <si>
-    <t>1.000 tl</t>
-  </si>
-  <si>
-    <t>1.500 tl</t>
-  </si>
-  <si>
-    <t>3.395 tl</t>
+    <t>Kök Ev, Dereli, Giresun. (Not; kamp yapmak için işletme sahibini arayarak izin alabilirsiniz.)</t>
   </si>
   <si>
     <t>29.</t>
@@ -602,10 +631,7 @@
 Telefon: +90 4563292929</t>
   </si>
   <si>
-    <t>1.495 tl</t>
-  </si>
-  <si>
-    <t>2.975 tl</t>
+    <t>Çakır Gölü, 29100 Çorak/Gümüşhane Merkez/Gümüşhane</t>
   </si>
   <si>
     <t>30.</t>
@@ -625,13 +651,7 @@
     <t>Bianca Deluxe Hotel Van: Bahçıvan Mahallesi Zübeyde Hanım Caddesi No:16 İpekyolu/VAN Bahçıvan Mahallesi Zübeyde Hanım Caddesi No:16 İpekyolu/VAN,  65100,  Hakkari,  Türkiye</t>
   </si>
   <si>
-    <t>2.411 tl</t>
-  </si>
-  <si>
-    <t>2.680 tl</t>
-  </si>
-  <si>
-    <t>2.750 tl</t>
+    <t>İkiyaka Cilo Sat Gölleri, ikiyaka, Yeşildere, 30000 Gürkavak/Yüksekova/Hakkari</t>
   </si>
   <si>
     <t>31.</t>
@@ -651,13 +671,7 @@
 Telefon: +90 3262125858</t>
   </si>
   <si>
-    <t>1.700 tl</t>
-  </si>
-  <si>
-    <t>2.979 tl</t>
-  </si>
-  <si>
-    <t>3.250 tl</t>
+    <t>Beşikgöl Yaylası Dörtyol,Yeşil, 31600 Dörtyol/Hatay</t>
   </si>
   <si>
     <t>32.</t>
@@ -677,13 +691,8 @@
     <t>Devin Otel: pirimehmet mah.107 cad. no:13 özkanlar kavşağı üstü,  32100,  Isparta,  Türkiye</t>
   </si>
   <si>
-    <t>900 tl</t>
-  </si>
-  <si>
-    <t>1.176 tl</t>
-  </si>
-  <si>
-    <t>2.198 tl</t>
+    <t>Saklı Göl Gönen,Pazar, 32090 Gönen/Isparta
++90 541 624 22 44</t>
   </si>
   <si>
     <t>33.</t>
@@ -696,20 +705,14 @@
 Telefon: +90(324)2388800</t>
   </si>
   <si>
-    <t>Otel Can: Ayasmahallesi Cetin Sokak Erdemli/Mersi,  33750,  Mersin,  Türkiye</t>
+    <t>Otel Can: Ayasmahallesi Cetin Sokak Erdemli/Mersin,  33750,  Mersin,  Türkiye</t>
   </si>
   <si>
     <t xml:space="preserve">Almir: Akdeniz Mahallesi Ahmet Erol Caddesi 11, Kizkalesi,  33790,  Mersin,  Türkiye
 Telefon: +90(324)5232333 </t>
   </si>
   <si>
-    <t>1.648 tl</t>
-  </si>
-  <si>
-    <t>2.720 tl</t>
-  </si>
-  <si>
-    <t>3.150 tl</t>
+    <t>Kayacı, Kayacı Vadisi, 33730 Erdemli/Mersin</t>
   </si>
   <si>
     <t>34.</t>
@@ -730,13 +733,7 @@
 Telefon: +90 212 337 49 00</t>
   </si>
   <si>
-    <t>956 tl</t>
-  </si>
-  <si>
-    <t>2.336 tl</t>
-  </si>
-  <si>
-    <t>3.625 tl</t>
+    <t>sabribeycamping, Uzun tarla mevki yolu sokak No/21, Karakiraz, kurna Plajı, 34980 Şile/İstanbul</t>
   </si>
   <si>
     <t>35.</t>
@@ -757,10 +754,7 @@
 Telefon: +90 2324980035</t>
   </si>
   <si>
-    <t>2.575 tl</t>
-  </si>
-  <si>
-    <t>3.755 tl</t>
+    <t>Park Orman Kemalpaşa, Yukarıkızılca Merkez, 35740 Kemalpaşa/İzmir</t>
   </si>
   <si>
     <t>36.</t>
@@ -781,10 +775,7 @@
 Telefon: +905327008636</t>
   </si>
   <si>
-    <t>750 tl</t>
-  </si>
-  <si>
-    <t>2.948 tl</t>
+    <t>Sarıkamış Allahuekber Dağları Milli Parkı, Sarıkamış, 36520 Sarıkamış/Kars</t>
   </si>
   <si>
     <t>37.</t>
@@ -805,13 +796,7 @@
 Telefon: +90 8502832929</t>
   </si>
   <si>
-    <t>800 tl</t>
-  </si>
-  <si>
-    <t>2.375 tl</t>
-  </si>
-  <si>
-    <t>3.650 tl</t>
+    <t>Ilıca, 37770 Ilıca/Pınarbaşı/Kastamonu</t>
   </si>
   <si>
     <t>38.</t>
@@ -832,13 +817,7 @@
 Telefon: +90 3522075000</t>
   </si>
   <si>
-    <t>958 tl</t>
-  </si>
-  <si>
-    <t>2.038 tl</t>
-  </si>
-  <si>
-    <t>3.296 tl</t>
+    <t>Yay Gölü, Kayseri</t>
   </si>
   <si>
     <t>39.</t>
@@ -858,10 +837,7 @@
     <t>Dessera Vineyards Hotel: Ahmetçe Köyü Iç Yolu Çifteçeşmeler No: 75,  39100,  Kırklareli,  Türkiye</t>
   </si>
   <si>
-    <t>2.013 tl</t>
-  </si>
-  <si>
-    <t>4.650 tl</t>
+    <t>Yıldız Dağı, 39302 Evciler/Pınarhisar/Kırklareli</t>
   </si>
   <si>
     <t>40.</t>
@@ -880,13 +856,7 @@
     <t>Armas Termal Resort: Bağ Başı Mah. Şehit Kerem Aydın Cd. No: 49 Kırşehir/TURKİYE,  40100,  Kırşehir,  Türkiye</t>
   </si>
   <si>
-    <t>1.194 tl</t>
-  </si>
-  <si>
-    <t>1.598 tl</t>
-  </si>
-  <si>
-    <t>2.993 tl</t>
+    <t>Seyfe Gölü, 40502 Seyfe/Mucur/Kırşehir</t>
   </si>
   <si>
     <t>41.</t>
@@ -907,10 +877,8 @@
 Telefon: +90(262)7456060 </t>
   </si>
   <si>
-    <t>2.650 tl</t>
-  </si>
-  <si>
-    <t>3.200 tl</t>
+    <t xml:space="preserve">Servetiye Cami Mahallesi Servetiyecami Başiskele/KOCAELİ
+</t>
   </si>
   <si>
     <t>42.</t>
@@ -932,6 +900,10 @@
 Telefon: +90 3322216000 | Faks: +90 3323000000</t>
   </si>
   <si>
+    <t xml:space="preserve">Altınapa Dam, Küçükmuhsine, 42280 Selçuklu/Konya
+</t>
+  </si>
+  <si>
     <t>43.</t>
   </si>
   <si>
@@ -948,6 +920,9 @@
 Telefon: +90 2742295555 | Faks: +90 2742166000 </t>
   </si>
   <si>
+    <t>Güveççi, Okçu Sk., 43266 Merkez/Kütahya</t>
+  </si>
+  <si>
     <t>44.</t>
   </si>
   <si>
@@ -964,6 +939,9 @@
     <t>Melid HOTEL : cevatpasa mahallesi turgut ozal bulvari,  44900,  Malatya,  Türkiye</t>
   </si>
   <si>
+    <t>Karagöz, Mehmetçik Cd., 44320 Merkez/Malatya</t>
+  </si>
+  <si>
     <t>45.</t>
   </si>
   <si>
@@ -979,6 +957,9 @@
   </si>
   <si>
     <t>hilton hotel: Mimar Sinan Bulvari Laleli Mah. Mimar Sinan Bulvari Laleli Mah.,  45030,  Manisa,  Türkiye</t>
+  </si>
+  <si>
+    <t>Turgutalp, 45030 Yunusemre/Manisa</t>
   </si>
   <si>
     <t>46.</t>
@@ -1002,6 +983,9 @@
     Telefon: +90 344 225 60 10</t>
   </si>
   <si>
+    <t>Avgasır Mahallesi, 46050 Onikişubat/Kahramanmaraş</t>
+  </si>
+  <si>
     <t>47.</t>
   </si>
   <si>
@@ -1023,6 +1007,9 @@
     Telefon: +90 482 212 70 00</t>
   </si>
   <si>
+    <t>Yardere, Yardere Köyü Yolu, 47100 Artuklu/Mardin</t>
+  </si>
+  <si>
     <t>48.</t>
   </si>
   <si>
@@ -1044,6 +1031,9 @@
     Telefon: +90 252 645 14 00</t>
   </si>
   <si>
+    <t>Akyaka, 48650 Ula/Muğla</t>
+  </si>
+  <si>
     <t>49.</t>
   </si>
   <si>
@@ -1065,6 +1055,9 @@
     Telefon: +90 436 212 51 00</t>
   </si>
   <si>
+    <t>49000 Tekyol/Muş Merkez/Muş</t>
+  </si>
+  <si>
     <t>50.</t>
   </si>
   <si>
@@ -1086,6 +1079,9 @@
     Telefon: +90 384 219 31 00</t>
   </si>
   <si>
+    <t>Esentepe, 50300 Uçhisar/Nevşehir Merkez/Nevşehir</t>
+  </si>
+  <si>
     <t>51.</t>
   </si>
   <si>
@@ -1107,6 +1103,9 @@
     Telefon: +90 388 213 00 11</t>
   </si>
   <si>
+    <t>Ulupınar, 38500 Demirkazık/Yahyalı/Niğde</t>
+  </si>
+  <si>
     <t>52.</t>
   </si>
   <si>
@@ -1128,6 +1127,9 @@
     Telefon: +90 452 233 10 00</t>
   </si>
   <si>
+    <t>Aziziye, Bolaman Yolu No:23, 52750 Perşembe/Ordu</t>
+  </si>
+  <si>
     <t>53.</t>
   </si>
   <si>
@@ -1149,6 +1151,9 @@
     Telefon: +90 464 213 55 00</t>
   </si>
   <si>
+    <t>Çamlıhemşin yolu üzeri 8.km, 53480 Rize</t>
+  </si>
+  <si>
     <t>54.</t>
   </si>
   <si>
@@ -1170,6 +1175,9 @@
     Telefon: +90 264 276 40 00</t>
   </si>
   <si>
+    <t>Poyrazlar, Sancak Sk No:12, 54100 Adapazarı/Sakarya</t>
+  </si>
+  <si>
     <t>55.</t>
   </si>
   <si>
@@ -1191,6 +1199,9 @@
     Telefon: +90 362 431 50 50</t>
   </si>
   <si>
+    <t>Bandırma Gemi, Belediye Evleri Mahallesi Doğupark sahil yolu, müze yanı, 55080 Canik</t>
+  </si>
+  <si>
     <t>56.</t>
   </si>
   <si>
@@ -1212,6 +1223,9 @@
     Telefon: +90 484 223 40 00</t>
   </si>
   <si>
+    <t>Mücahit, 56870 Tillo/Siirt</t>
+  </si>
+  <si>
     <t>57.</t>
   </si>
   <si>
@@ -1233,6 +1247,9 @@
     Telefon: +90 368 261 11 00</t>
   </si>
   <si>
+    <t>Gelincik, Plaj Yolu No:1, 57000 Sinop Merkez/Sinop</t>
+  </si>
+  <si>
     <t>58.</t>
   </si>
   <si>
@@ -1254,6 +1271,9 @@
     Telefon: +90 346 223 80 00</t>
   </si>
   <si>
+    <t>Yelken, 58800 Yelken/Gürün/Sivas</t>
+  </si>
+  <si>
     <t>59.</t>
   </si>
   <si>
@@ -1275,6 +1295,9 @@
     Telefon: +90 282 262 90 00</t>
   </si>
   <si>
+    <t>Karaevli, 59030 Tekirdağ Merkez/Tekirdağ</t>
+  </si>
+  <si>
     <t>60.</t>
   </si>
   <si>
@@ -1296,6 +1319,9 @@
     Telefon: +90 356 214 30 00</t>
   </si>
   <si>
+    <t>Örtmeliönü, Name Sk., 60100 Tokat Merkez/Tokat</t>
+  </si>
+  <si>
     <t>61.</t>
   </si>
   <si>
@@ -1317,7 +1343,7 @@
     Telefon: +90 462 230 00 00</t>
   </si>
   <si>
-    <t>,</t>
+    <t>Altındere Vadisi Milli Parkı Kamp Alanı</t>
   </si>
   <si>
     <t>62.</t>
@@ -1333,6 +1359,9 @@
   </si>
   <si>
     <t>Askireg Otel, Merkez, 62710 Kocatepe/Pülümür/Tunceli</t>
+  </si>
+  <si>
+    <t>Munzur Vadisi Milli Parkı Kamp Alanı</t>
   </si>
   <si>
     <t>63.</t>
@@ -1351,6 +1380,9 @@
 Telefon: +90 (0414) 290 66 66</t>
   </si>
   <si>
+    <t>Halfeti Kamp Alanı</t>
+  </si>
+  <si>
     <t>64.</t>
   </si>
   <si>
@@ -1369,6 +1401,9 @@
 Telefon: +90 276 222 20 20</t>
   </si>
   <si>
+    <t>Taşyaran Tabiat Parkı Kamp Alanı (Taşyaran Vadisi)</t>
+  </si>
+  <si>
     <t>65.</t>
   </si>
   <si>
@@ -1386,6 +1421,9 @@
 Telefon: +90 4322270227 | Faks: +90 4322271227</t>
   </si>
   <si>
+    <t>Dilkaya Halk Plajı Kamp Alanı</t>
+  </si>
+  <si>
     <t>66.</t>
   </si>
   <si>
@@ -1402,6 +1440,10 @@
 Telefon: +90(354)4140000 | Faks: +90(354)4140004</t>
   </si>
   <si>
+    <t xml:space="preserve">Kazankaya Kanyonu Kamp Alanı
+</t>
+  </si>
+  <si>
     <t>67.</t>
   </si>
   <si>
@@ -1417,6 +1459,9 @@
   <si>
     <t>Bab-i Zer Hotel Yesil Mahallesi Kapuz Caddesi No: 45,  67000,  Zonguldak,  Türkiye
 Telefon: +90 3722564401</t>
+  </si>
+  <si>
+    <t>Danaağzı Tabiat Parkı Kamp Alanı</t>
   </si>
   <si>
     <t>68.</t>
@@ -1437,6 +1482,9 @@
 Telefon: +90 3822120808 | Faks: +90 3822120043</t>
   </si>
   <si>
+    <t>Ihlara Vadisi Kamp Alanı</t>
+  </si>
+  <si>
     <t>69.</t>
   </si>
   <si>
@@ -1456,6 +1504,9 @@
 Telefon: +90(458)2226969 | Faks: +90(458)3336969 </t>
   </si>
   <si>
+    <t>Kop Dağı Milli Parkı Kamp Alanı</t>
+  </si>
+  <si>
     <t>70.</t>
   </si>
   <si>
@@ -1473,6 +1524,9 @@
     <t>grand hotel convention center karaman Atatürk mah.Konya yolu cad.no:28, 70110, Karaman, Türkiye Telefon: +90(338)2210202 | Faks: +90(338)2210203</t>
   </si>
   <si>
+    <t>İbrala Vadisi Kamp Alanı</t>
+  </si>
+  <si>
     <t>71.</t>
   </si>
   <si>
@@ -1489,6 +1543,9 @@
     <t>Enar Hotel Yenidoğan, Millet Blv. No:127, 71200 Kırıkkale Merkez/Kırıkkale</t>
   </si>
   <si>
+    <t>Karaahmetli Tabiat Parkı Kamp Alanı</t>
+  </si>
+  <si>
     <t>72.</t>
   </si>
   <si>
@@ -1505,6 +1562,9 @@
 Telefon: 90-444-8172</t>
   </si>
   <si>
+    <t>Malabadi Tabiat Parkı Kamp Alanı</t>
+  </si>
+  <si>
     <t>73.</t>
   </si>
   <si>
@@ -1522,6 +1582,9 @@
 Telefon: (0486) 214 16 00</t>
   </si>
   <si>
+    <t>Faraşin Yaylası Kamp Alanı</t>
+  </si>
+  <si>
     <t>74.</t>
   </si>
   <si>
@@ -1540,6 +1603,9 @@
 Telefon: (0378) 315 38 99</t>
   </si>
   <si>
+    <t>Ahatlar Tabiat Parkı Kamp Alanı</t>
+  </si>
+  <si>
     <t>75.</t>
   </si>
   <si>
@@ -1556,6 +1622,9 @@
     <t>Kuzey Yıldızı Hotel Inönü Mah. Kongre Cad. No. 297 Merkez/Ardahan, 75000, Ardahan, Türkiye</t>
   </si>
   <si>
+    <t>Cemal Tural Tabiat Parkı Kamp Alanı</t>
+  </si>
+  <si>
     <t>76.</t>
   </si>
   <si>
@@ -1572,6 +1641,9 @@
     <t>Otel Grand Derya, Karaağaç, Kazım Karabekir Cd. No:42 76000, 76000 Iğdır Merkez/Iğdır</t>
   </si>
   <si>
+    <t>Adetli Köyü Kamp Alanı</t>
+  </si>
+  <si>
     <t>77.</t>
   </si>
   <si>
@@ -1590,6 +1662,9 @@
 Telefon: (0226) 880 00 50</t>
   </si>
   <si>
+    <t>Harmankaya Tabiat Parkı Kamp Alanı</t>
+  </si>
+  <si>
     <t>78.</t>
   </si>
   <si>
@@ -1608,6 +1683,9 @@
 Telefon: (0370) 478 10 10</t>
   </si>
   <si>
+    <t>Çamlık Tabiat Parkı Kamp Alanı</t>
+  </si>
+  <si>
     <t>79.</t>
   </si>
   <si>
@@ -1624,6 +1702,9 @@
     <t>Saltuk Bey Mansion Boutique Hotel, Islambey Neighborhood Hilal Hall Street No 13 Center, 79000 Kilis</t>
   </si>
   <si>
+    <t>Hisar Çamlığı Tabiat Parkı Kamp Alanı</t>
+  </si>
+  <si>
     <t>80.</t>
   </si>
   <si>
@@ -1639,6 +1720,9 @@
   <si>
     <t>Hattuşa Vacation Thermal Club Erzin Başlamış Köyü, İçmeler Mevkii Erzin,  31960,  Dörtyol,  Türkiye
 Telefon: +90 850 840 6800</t>
+  </si>
+  <si>
+    <t>Karatepe Aslantaş Milli Parkı Kamp Alanı</t>
   </si>
   <si>
     <t>81.</t>
@@ -1658,102 +1742,120 @@
     <t>Gösterişli Hotel 
 Adres: Cedidiye, H. Haydar Gördebil Blv. No:10, 81020 Düzce Merkez/Düzce
 Telefon: (0380) 524 11 33</t>
+  </si>
+  <si>
+    <t>Torkul Gölü Kamp Alanı</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF212529"/>
       <name val="Roboto"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF212529"/>
       <name val="Roboto"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF212529"/>
       <name val="Roboto"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FF1F1F1F"/>
+      <sz val="9"/>
+      <color rgb="FF1f1f1f"/>
       <name val="&quot;Google Sans&quot;"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FF0A1121"/>
+      <sz val="9"/>
+      <color rgb="FF0a1121"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF212529"/>
       <name val="Roboto"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF0A1121"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="&quot;Google Sans&quot;"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0a1121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF212529"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Roboto"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF212529"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF212529"/>
-      <name val="Roboto"/>
+      <name val="Docs-Roboto"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF0a1121"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF212529"/>
-      <name val="Docs-Roboto"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF0A1121"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1761,110 +1863,169 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="33">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="13" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="14" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="14" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="15" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="16" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -1891,22 +2052,82 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1918,157 +2139,197 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.38"/>
-    <col customWidth="1" min="2" max="2" width="19.13"/>
-    <col customWidth="1" min="3" max="5" width="28.13"/>
+    <col min="1" max="1" style="30" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="30" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="31" width="28.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="30" width="28.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="30" width="28.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="32" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="32" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="32" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="30" width="30.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="32" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2084,2143 +2345,2975 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1">
-        <v>1300.0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1962.0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3000.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="F2" s="9">
+        <v>1300</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1962</v>
+      </c>
+      <c r="H2" s="9">
+        <v>3000</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="J2" s="9">
+        <v>500</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1155.0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1880.0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3105.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F3" s="9">
+        <v>1155</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1880</v>
+      </c>
+      <c r="H3" s="9">
+        <v>3105</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="J3" s="9">
+        <v>500</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1">
-        <v>900.0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1831.0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2970.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="F4" s="9">
+        <v>900</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1831</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2970</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="9">
+        <v>500</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1">
-        <v>686.0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>850.0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4500.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="F5" s="9">
+        <v>686</v>
+      </c>
+      <c r="G5" s="9">
+        <v>850</v>
+      </c>
+      <c r="H5" s="9">
+        <v>4500</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="9">
+        <v>500</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1100.0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1950.0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2566.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1100</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1950</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2566</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="9">
+        <v>500</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1">
-        <v>990.0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1800.0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2925.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="F7" s="9">
+        <v>990</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1800</v>
+      </c>
+      <c r="H7" s="9">
+        <v>2925</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="9">
+        <v>500</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1026.0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2081.0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3150.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1026</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2081</v>
+      </c>
+      <c r="H8" s="9">
+        <v>3150</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="9">
+        <v>500</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="1">
-        <v>600.0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1914.0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>3225.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="F9" s="9">
+        <v>600</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1914</v>
+      </c>
+      <c r="H9" s="9">
+        <v>3225</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="9">
+        <v>500</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1100.0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2184.0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>3073.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1100</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2184</v>
+      </c>
+      <c r="H10" s="9">
+        <v>3073</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="9">
+        <v>500</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1045.0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2450.0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>3250.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1045</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2450</v>
+      </c>
+      <c r="H11" s="9">
+        <v>3250</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="9">
+        <v>500</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="1">
-        <v>778.0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1400.0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1412.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
+      </c>
+      <c r="F12" s="9">
+        <v>778</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1400</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1412</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="9">
+        <v>500</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1299.0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2181.0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2614.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1299</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2181</v>
+      </c>
+      <c r="H13" s="9">
+        <v>2614</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="9">
+        <v>500</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1050.0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2008.0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>3297.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1050</v>
+      </c>
+      <c r="G14" s="9">
+        <v>2008</v>
+      </c>
+      <c r="H14" s="9">
+        <v>3297</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="9">
+        <v>500</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="1">
-        <v>900.0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>2000.0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>3200.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>81</v>
+        <v>92</v>
+      </c>
+      <c r="F15" s="9">
+        <v>900</v>
+      </c>
+      <c r="G15" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H15" s="9">
+        <v>3200</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="9">
+        <v>500</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1078.0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2188.0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>3113.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>86</v>
+        <v>98</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1078</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2188</v>
+      </c>
+      <c r="H16" s="9">
+        <v>3113</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="9">
+        <v>500</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="1">
-        <v>986.0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>2015.0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>3107.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
+      </c>
+      <c r="F17" s="9">
+        <v>986</v>
+      </c>
+      <c r="G17" s="9">
+        <v>2015</v>
+      </c>
+      <c r="H17" s="9">
+        <v>3107</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" s="9">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1258.0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2019.0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>3063.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>96</v>
+        <v>110</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1258</v>
+      </c>
+      <c r="G18" s="9">
+        <v>2019</v>
+      </c>
+      <c r="H18" s="9">
+        <v>3063</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="9">
+        <v>500</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="1">
-        <v>950.0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1676.0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>101</v>
+        <v>116</v>
+      </c>
+      <c r="F19" s="9">
+        <v>950</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1676</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1800</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J19" s="9">
+        <v>500</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="1">
-        <v>900.0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2198.0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>3600.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>106</v>
+        <v>122</v>
+      </c>
+      <c r="F20" s="9">
+        <v>900</v>
+      </c>
+      <c r="G20" s="9">
+        <v>2198</v>
+      </c>
+      <c r="H20" s="9">
+        <v>3600</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="9">
+        <v>500</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" s="1">
-        <v>934.0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2055.0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>3003.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>111</v>
+        <v>128</v>
+      </c>
+      <c r="F21" s="9">
+        <v>934</v>
+      </c>
+      <c r="G21" s="9">
+        <v>2055</v>
+      </c>
+      <c r="H21" s="9">
+        <v>3003</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" s="9">
+        <v>500</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="56.25">
+      <c r="A22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="1">
-        <v>950.0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1950.0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>3200.0</v>
-      </c>
-    </row>
-    <row r="23" ht="75.0" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>123</v>
+        <v>134</v>
+      </c>
+      <c r="F22" s="9">
+        <v>950</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1950</v>
+      </c>
+      <c r="H22" s="9">
+        <v>3200</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J22" s="9">
+        <v>500</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="75">
+      <c r="A23" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="16">
+        <v>902</v>
+      </c>
+      <c r="G23" s="16">
+        <v>2184</v>
+      </c>
+      <c r="H23" s="16">
+        <v>3174</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J23" s="9">
+        <v>500</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>144</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>131</v>
+        <v>145</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="16">
+        <v>920</v>
+      </c>
+      <c r="G24" s="16">
+        <v>2500</v>
+      </c>
+      <c r="H24" s="16">
+        <v>2898</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J24" s="9">
+        <v>500</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" ht="70.5" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>138</v>
+        <v>151</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="16">
+        <v>914</v>
+      </c>
+      <c r="G25" s="16">
+        <v>1800</v>
+      </c>
+      <c r="H25" s="16">
+        <v>2564</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="J25" s="9">
+        <v>500</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="70.5">
+      <c r="A26" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" ht="62.25" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>146</v>
+        <v>158</v>
+      </c>
+      <c r="F26" s="16">
+        <v>703</v>
+      </c>
+      <c r="G26" s="16">
+        <v>1760</v>
+      </c>
+      <c r="H26" s="16">
+        <v>2912</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J26" s="9">
+        <v>500</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="62.25">
+      <c r="A27" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>154</v>
+        <v>164</v>
+      </c>
+      <c r="F27" s="16">
+        <v>940</v>
+      </c>
+      <c r="G27" s="16">
+        <v>2592</v>
+      </c>
+      <c r="H27" s="16">
+        <v>3457</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J27" s="9">
+        <v>500</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
+      </c>
+      <c r="F28" s="16">
+        <v>759</v>
+      </c>
+      <c r="G28" s="16">
+        <v>2000</v>
+      </c>
+      <c r="H28" s="16">
+        <v>3204</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="J28" s="9">
+        <v>500</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" ht="57.75" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
+      </c>
+      <c r="F29" s="16">
+        <v>1000</v>
+      </c>
+      <c r="G29" s="16">
+        <v>1500</v>
+      </c>
+      <c r="H29" s="16">
+        <v>3395</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="J29" s="9">
+        <v>500</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="57.75">
+      <c r="A30" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>172</v>
+        <v>180</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>181</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="F30" s="16">
+        <v>1495</v>
+      </c>
+      <c r="G30" s="16">
+        <v>2000</v>
+      </c>
+      <c r="H30" s="16">
+        <v>2975</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="J30" s="9">
+        <v>500</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="32" ht="52.5" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="16">
+        <v>2411</v>
+      </c>
+      <c r="G31" s="16">
+        <v>2680</v>
+      </c>
+      <c r="H31" s="16">
+        <v>2750</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="J31" s="9">
+        <v>500</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="62.25">
+      <c r="A32" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="F32" s="16">
+        <v>1700</v>
+      </c>
+      <c r="G32" s="16">
+        <v>2979</v>
+      </c>
+      <c r="H32" s="16">
+        <v>3250</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J32" s="9">
+        <v>500</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="62.25">
+      <c r="A33" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="H33" s="12" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="34" ht="53.25" customHeight="1">
-      <c r="A34" s="2" t="s">
+      <c r="E33" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="F33" s="16">
+        <v>900</v>
+      </c>
+      <c r="G33" s="16">
+        <v>1176</v>
+      </c>
+      <c r="H33" s="16">
+        <v>2198</v>
+      </c>
+      <c r="I33" s="18" t="s">
         <v>201</v>
       </c>
+      <c r="J33" s="9">
+        <v>500</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="62.25">
+      <c r="A34" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="C34" s="13" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G34" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="F34" s="16">
+        <v>1648</v>
+      </c>
+      <c r="G34" s="16">
+        <v>2720</v>
+      </c>
+      <c r="H34" s="16">
+        <v>3150</v>
+      </c>
+      <c r="I34" s="12" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
+      <c r="J34" s="9">
+        <v>500</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="57">
+      <c r="A35" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="5" t="s">
         <v>209</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="16">
+        <v>956</v>
+      </c>
+      <c r="G35" s="16">
+        <v>2336</v>
+      </c>
+      <c r="H35" s="16">
+        <v>3625</v>
+      </c>
+      <c r="I35" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="J35" s="9">
+        <v>500</v>
+      </c>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="62.25">
+      <c r="A36" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="B36" s="5" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
+      <c r="C36" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="D36" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="E36" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="F36" s="16">
+        <v>1000</v>
+      </c>
+      <c r="G36" s="16">
+        <v>2575</v>
+      </c>
+      <c r="H36" s="16">
+        <v>3755</v>
+      </c>
+      <c r="I36" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="J36" s="9">
+        <v>500</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="62.25">
+      <c r="A37" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F36" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="G36" s="12" t="s">
+      <c r="B37" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="C37" s="13" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
+      <c r="D37" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="E37" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="F37" s="16">
+        <v>750</v>
+      </c>
+      <c r="G37" s="16">
+        <v>2336</v>
+      </c>
+      <c r="H37" s="16">
+        <v>2948</v>
+      </c>
+      <c r="I37" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="J37" s="9">
+        <v>500</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="62.25">
+      <c r="A38" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="B38" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="C38" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="G37" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="H37" s="12" t="s">
+      <c r="D38" s="13" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
+      <c r="E38" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="F38" s="16">
+        <v>800</v>
+      </c>
+      <c r="G38" s="16">
+        <v>2375</v>
+      </c>
+      <c r="H38" s="16">
+        <v>3650</v>
+      </c>
+      <c r="I38" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="J38" s="9">
+        <v>500</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="51">
+      <c r="A39" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="B39" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="C39" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="D39" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="E39" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="F39" s="16">
+        <v>958</v>
+      </c>
+      <c r="G39" s="16">
+        <v>2038</v>
+      </c>
+      <c r="H39" s="16">
+        <v>3296</v>
+      </c>
+      <c r="I39" s="17" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
+      <c r="J39" s="9">
+        <v>500</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="73.5">
+      <c r="A40" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E40" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F40" s="16">
+        <v>1000</v>
+      </c>
+      <c r="G40" s="16">
+        <v>2013</v>
+      </c>
+      <c r="H40" s="16">
+        <v>4650</v>
+      </c>
+      <c r="I40" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="J40" s="9">
+        <v>500</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="51">
+      <c r="A41" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="B41" s="5" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
+      <c r="C41" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="D41" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="E41" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="F41" s="16">
+        <v>1194</v>
+      </c>
+      <c r="G41" s="16">
+        <v>1598</v>
+      </c>
+      <c r="H41" s="16">
+        <v>2993</v>
+      </c>
+      <c r="I41" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="J41" s="9">
+        <v>500</v>
+      </c>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="73.5">
+      <c r="A42" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="G40" s="12" t="s">
+      <c r="B42" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="C42" s="13" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="41" ht="62.25" customHeight="1">
-      <c r="A41" s="2" t="s">
+      <c r="D42" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="E42" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="F42" s="16">
+        <v>1000</v>
+      </c>
+      <c r="G42" s="16">
+        <v>2650</v>
+      </c>
+      <c r="H42" s="16">
+        <v>3200</v>
+      </c>
+      <c r="I42" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="J42" s="9">
+        <v>500</v>
+      </c>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="39.75">
+      <c r="A43" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="B43" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="C43" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="D43" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="E43" s="21" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="42" ht="78.0" customHeight="1">
-      <c r="A42" s="2" t="s">
+      <c r="F43" s="22">
+        <v>1250</v>
+      </c>
+      <c r="G43" s="22">
+        <v>2400</v>
+      </c>
+      <c r="H43" s="22">
+        <v>4050</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="J43" s="9">
+        <v>500</v>
+      </c>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="28.5">
+      <c r="A44" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="B44" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="C44" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="D44" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="F42" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="G42" s="12" t="s">
+      <c r="E44" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="F44" s="22">
+        <v>1200</v>
+      </c>
+      <c r="G44" s="22">
+        <v>2900</v>
+      </c>
+      <c r="H44" s="22">
+        <v>4100</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
+      <c r="J44" s="9">
+        <v>500</v>
+      </c>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="28.5">
+      <c r="A45" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B45" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C45" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D45" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E45" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="F43" s="16">
-        <v>1250.0</v>
-      </c>
-      <c r="G43" s="16">
-        <v>2400.0</v>
-      </c>
-      <c r="H43" s="16">
-        <v>4050.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
+      <c r="F45" s="22">
+        <v>1100</v>
+      </c>
+      <c r="G45" s="22">
+        <v>2000</v>
+      </c>
+      <c r="H45" s="22">
+        <v>3500</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="J45" s="9">
+        <v>500</v>
+      </c>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="28.5">
+      <c r="A46" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="B46" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="C46" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="D46" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="F44" s="16">
-        <v>1200.0</v>
-      </c>
-      <c r="G44" s="16">
-        <v>2900.0</v>
-      </c>
-      <c r="H44" s="16">
-        <v>4100.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="s">
+      <c r="E46" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="F46" s="22">
+        <v>1500</v>
+      </c>
+      <c r="G46" s="22">
+        <v>2000</v>
+      </c>
+      <c r="H46" s="22">
+        <v>3300</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="J46" s="9">
+        <v>500</v>
+      </c>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="B47" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="C47" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="F45" s="16">
-        <v>1100.0</v>
-      </c>
-      <c r="G45" s="16">
-        <v>2000.0</v>
-      </c>
-      <c r="H45" s="16">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="s">
+      <c r="D47" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="E47" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="F47" s="22">
+        <v>1200</v>
+      </c>
+      <c r="G47" s="22">
+        <v>1500</v>
+      </c>
+      <c r="H47" s="22">
+        <v>2000</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="J47" s="9">
+        <v>500</v>
+      </c>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="B48" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F46" s="16">
-        <v>1500.0</v>
-      </c>
-      <c r="G46" s="16">
-        <v>2000.0</v>
-      </c>
-      <c r="H46" s="16">
-        <v>3300.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="s">
+      <c r="C48" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="D48" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="E48" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="F48" s="22">
+        <v>1500</v>
+      </c>
+      <c r="G48" s="22">
+        <v>2000</v>
+      </c>
+      <c r="H48" s="22">
+        <v>3500</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="J48" s="9">
+        <v>500</v>
+      </c>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="F47" s="16">
-        <v>1200.0</v>
-      </c>
-      <c r="G47" s="16">
-        <v>1500.0</v>
-      </c>
-      <c r="H47" s="16">
-        <v>2000.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
+      <c r="B49" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="C49" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="D49" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="E49" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="F49" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G49" s="22">
+        <v>2500</v>
+      </c>
+      <c r="H49" s="22">
+        <v>3800</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F48" s="16">
-        <v>1500.0</v>
-      </c>
-      <c r="G48" s="16">
-        <v>2000.0</v>
-      </c>
-      <c r="H48" s="16">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
+      <c r="J49" s="9">
+        <v>500</v>
+      </c>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B50" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C50" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D50" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E50" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="F49" s="16">
-        <v>2000.0</v>
-      </c>
-      <c r="G49" s="16">
-        <v>2500.0</v>
-      </c>
-      <c r="H49" s="16">
-        <v>3800.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
+      <c r="F50" s="22">
+        <v>1000</v>
+      </c>
+      <c r="G50" s="22">
+        <v>1200</v>
+      </c>
+      <c r="H50" s="22">
+        <v>1500</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="J50" s="9">
+        <v>500</v>
+      </c>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="B51" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="C51" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="D51" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="F50" s="16">
-        <v>1000.0</v>
-      </c>
-      <c r="G50" s="16">
-        <v>1200.0</v>
-      </c>
-      <c r="H50" s="16">
-        <v>1500.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="s">
+      <c r="E51" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="F51" s="22">
+        <v>1500</v>
+      </c>
+      <c r="G51" s="22">
+        <v>2000</v>
+      </c>
+      <c r="H51" s="22">
+        <v>3500</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="J51" s="9">
+        <v>500</v>
+      </c>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="B52" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="C52" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="F51" s="16">
-        <v>1500.0</v>
-      </c>
-      <c r="G51" s="16">
-        <v>2000.0</v>
-      </c>
-      <c r="H51" s="16">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="s">
+      <c r="D52" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="E52" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="F52" s="22">
+        <v>1000</v>
+      </c>
+      <c r="G52" s="22">
+        <v>1200</v>
+      </c>
+      <c r="H52" s="22">
+        <v>1500</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="J52" s="9">
+        <v>500</v>
+      </c>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="B53" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F52" s="16">
-        <v>1000.0</v>
-      </c>
-      <c r="G52" s="16">
-        <v>1200.0</v>
-      </c>
-      <c r="H52" s="16">
-        <v>1500.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="s">
+      <c r="C53" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="D53" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="E53" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="F53" s="22">
+        <v>1800</v>
+      </c>
+      <c r="G53" s="22">
+        <v>2200</v>
+      </c>
+      <c r="H53" s="22">
+        <v>2800</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="J53" s="9">
+        <v>500</v>
+      </c>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F53" s="16">
-        <v>1800.0</v>
-      </c>
-      <c r="G53" s="16">
-        <v>2200.0</v>
-      </c>
-      <c r="H53" s="16">
-        <v>2800.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="s">
+      <c r="B54" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="D54" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="E54" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="F54" s="22">
+        <v>1800</v>
+      </c>
+      <c r="G54" s="22">
+        <v>2200</v>
+      </c>
+      <c r="H54" s="22">
+        <v>2800</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F54" s="16">
-        <v>1800.0</v>
-      </c>
-      <c r="G54" s="16">
-        <v>2200.0</v>
-      </c>
-      <c r="H54" s="16">
-        <v>2800.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="s">
+      <c r="J54" s="9">
+        <v>500</v>
+      </c>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="F55" s="16">
-        <v>1500.0</v>
-      </c>
-      <c r="G55" s="16">
-        <v>2000.0</v>
-      </c>
-      <c r="H55" s="16">
-        <v>3000.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="s">
+      <c r="F55" s="22">
+        <v>1500</v>
+      </c>
+      <c r="G55" s="22">
+        <v>2000</v>
+      </c>
+      <c r="H55" s="22">
+        <v>3000</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="J55" s="9">
+        <v>500</v>
+      </c>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="B56" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="C56" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="D56" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="F56" s="16">
-        <v>2000.0</v>
-      </c>
-      <c r="G56" s="16">
-        <v>2500.0</v>
-      </c>
-      <c r="H56" s="16">
-        <v>3500.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="s">
+      <c r="E56" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="F56" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G56" s="22">
+        <v>2500</v>
+      </c>
+      <c r="H56" s="22">
+        <v>3500</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="J56" s="9">
+        <v>500</v>
+      </c>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="B57" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="C57" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="F57" s="16">
-        <v>1000.0</v>
-      </c>
-      <c r="G57" s="16">
-        <v>1200.0</v>
-      </c>
-      <c r="H57" s="16">
-        <v>1500.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="s">
+      <c r="D57" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="E57" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="F57" s="22">
+        <v>1000</v>
+      </c>
+      <c r="G57" s="22">
+        <v>1200</v>
+      </c>
+      <c r="H57" s="22">
+        <v>1500</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="J57" s="9">
+        <v>500</v>
+      </c>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="B58" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F58" s="16">
-        <v>1200.0</v>
-      </c>
-      <c r="G58" s="16">
-        <v>1500.0</v>
-      </c>
-      <c r="H58" s="16">
-        <v>2000.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="s">
+      <c r="C58" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="D58" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="E58" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="F58" s="22">
+        <v>1200</v>
+      </c>
+      <c r="G58" s="22">
+        <v>1500</v>
+      </c>
+      <c r="H58" s="22">
+        <v>2000</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="J58" s="9">
+        <v>500</v>
+      </c>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F59" s="16">
-        <v>1500.0</v>
-      </c>
-      <c r="G59" s="16">
-        <v>2000.0</v>
-      </c>
-      <c r="H59" s="16">
-        <v>2800.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="s">
+      <c r="B59" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="C59" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="D59" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="E59" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="F59" s="22">
+        <v>1500</v>
+      </c>
+      <c r="G59" s="22">
+        <v>2000</v>
+      </c>
+      <c r="H59" s="22">
+        <v>2800</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F60" s="16">
-        <v>1500.0</v>
-      </c>
-      <c r="G60" s="16">
-        <v>2000.0</v>
-      </c>
-      <c r="H60" s="16">
-        <v>2500.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="s">
+      <c r="J59" s="9">
+        <v>500</v>
+      </c>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B60" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C60" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D60" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E60" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="F61" s="16">
-        <v>1000.0</v>
-      </c>
-      <c r="G61" s="16">
-        <v>1200.0</v>
-      </c>
-      <c r="H61" s="16">
-        <v>1500.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="s">
+      <c r="F60" s="22">
+        <v>1500</v>
+      </c>
+      <c r="G60" s="22">
+        <v>2000</v>
+      </c>
+      <c r="H60" s="22">
+        <v>2500</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="J60" s="9">
+        <v>500</v>
+      </c>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="A61" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="B61" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="C61" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="D61" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="F62" s="16">
-        <v>2000.0</v>
-      </c>
-      <c r="G62" s="16">
-        <v>2500.0</v>
-      </c>
-      <c r="H62" s="16" t="s">
+      <c r="E61" s="21" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="s">
+      <c r="F61" s="22">
+        <v>1000</v>
+      </c>
+      <c r="G61" s="22">
+        <v>1200</v>
+      </c>
+      <c r="H61" s="22">
+        <v>1500</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="J61" s="9">
+        <v>500</v>
+      </c>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="A62" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="B62" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="C62" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="D62" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="F63" s="18">
-        <v>2300.0</v>
-      </c>
-      <c r="G63" s="18">
-        <v>3235.0</v>
-      </c>
-      <c r="H63" s="18">
-        <v>5193.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="s">
+      <c r="E62" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="F62" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G62" s="22">
+        <v>2500</v>
+      </c>
+      <c r="H62" s="22">
+        <v>5145</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="J62" s="9">
+        <v>500</v>
+      </c>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+      <c r="A63" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="B63" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="E64" s="18" t="s">
+      <c r="C63" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="F64" s="18">
-        <v>1603.0</v>
-      </c>
-      <c r="G64" s="18">
-        <v>2475.0</v>
-      </c>
-      <c r="H64" s="18">
-        <v>3438.0</v>
-      </c>
-      <c r="J64" s="17"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="s">
+      <c r="D63" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="E63" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="F63" s="25">
+        <v>2300</v>
+      </c>
+      <c r="G63" s="25">
+        <v>3235</v>
+      </c>
+      <c r="H63" s="25">
+        <v>5193</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="J63" s="9">
+        <v>500</v>
+      </c>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+      <c r="A64" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="B64" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="F65" s="18">
-        <v>900.0</v>
-      </c>
-      <c r="G65" s="18">
-        <v>2234.0</v>
-      </c>
-      <c r="H65" s="18">
-        <v>3150.0</v>
-      </c>
-      <c r="J65" s="17"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="s">
+      <c r="C64" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="D64" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="E64" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="F64" s="25">
+        <v>1603</v>
+      </c>
+      <c r="G64" s="25">
+        <v>2475</v>
+      </c>
+      <c r="H64" s="25">
+        <v>3438</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="J64" s="9">
+        <v>500</v>
+      </c>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+      <c r="A65" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="F66" s="18">
-        <v>1124.0</v>
-      </c>
-      <c r="G66" s="18">
-        <v>2100.0</v>
-      </c>
-      <c r="H66" s="18">
-        <v>3100.0</v>
-      </c>
-      <c r="J66" s="17"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="s">
+      <c r="B65" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="C65" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="D65" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="E65" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="F65" s="25">
+        <v>900</v>
+      </c>
+      <c r="G65" s="25">
+        <v>2234</v>
+      </c>
+      <c r="H65" s="25">
+        <v>3150</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="F67" s="18">
-        <v>1100.0</v>
-      </c>
-      <c r="G67" s="18">
-        <v>1700.0</v>
-      </c>
-      <c r="H67" s="18">
-        <v>3293.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="s">
+      <c r="J65" s="9">
+        <v>500</v>
+      </c>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+      <c r="A66" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B66" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C66" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D66" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E66" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="F68" s="18">
-        <v>1250.0</v>
-      </c>
-      <c r="G68" s="18">
-        <v>2483.0</v>
-      </c>
-      <c r="H68" s="18">
-        <v>3071.0</v>
-      </c>
-    </row>
-    <row r="69" ht="31.5" customHeight="1">
-      <c r="A69" s="2" t="s">
+      <c r="F66" s="25">
+        <v>1124</v>
+      </c>
+      <c r="G66" s="25">
+        <v>2100</v>
+      </c>
+      <c r="H66" s="25">
+        <v>3100</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="J66" s="9">
+        <v>500</v>
+      </c>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+      <c r="A67" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="B67" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="C67" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="D67" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="F69" s="18">
-        <v>1200.0</v>
-      </c>
-      <c r="G69" s="18">
-        <v>2000.0</v>
-      </c>
-      <c r="H69" s="18">
-        <v>3225.0</v>
-      </c>
-    </row>
-    <row r="70" ht="33.75" customHeight="1">
-      <c r="A70" s="2" t="s">
+      <c r="E67" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="F67" s="25">
+        <v>1100</v>
+      </c>
+      <c r="G67" s="25">
+        <v>1700</v>
+      </c>
+      <c r="H67" s="25">
+        <v>3293</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="J67" s="9">
+        <v>500</v>
+      </c>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+      <c r="A68" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="B68" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="C68" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="F70" s="18">
-        <v>800.0</v>
-      </c>
-      <c r="G70" s="18">
-        <v>1900.0</v>
-      </c>
-      <c r="H70" s="18">
-        <v>2320.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="s">
+      <c r="D68" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="E68" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="F68" s="25">
+        <v>1250</v>
+      </c>
+      <c r="G68" s="25">
+        <v>2483</v>
+      </c>
+      <c r="H68" s="25">
+        <v>3071</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="J68" s="9">
+        <v>500</v>
+      </c>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="31.5">
+      <c r="A69" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="E71" s="20" t="s">
+      <c r="B69" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="F71" s="18">
-        <v>1200.0</v>
-      </c>
-      <c r="G71" s="18">
-        <v>1900.0</v>
-      </c>
-      <c r="H71" s="18">
-        <v>3300.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="s">
+      <c r="C69" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="D69" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="E69" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="F69" s="25">
+        <v>1200</v>
+      </c>
+      <c r="G69" s="25">
+        <v>2000</v>
+      </c>
+      <c r="H69" s="25">
+        <v>3225</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="E72" s="20" t="s">
+      <c r="J69" s="9">
+        <v>500</v>
+      </c>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="33.75">
+      <c r="A70" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="F72" s="18">
-        <v>1300.0</v>
-      </c>
-      <c r="G72" s="18">
-        <v>1800.0</v>
-      </c>
-      <c r="H72" s="18">
-        <v>1950.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="s">
+      <c r="B70" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="C70" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="D70" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="E70" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="F70" s="25">
+        <v>800</v>
+      </c>
+      <c r="G70" s="25">
+        <v>1900</v>
+      </c>
+      <c r="H70" s="25">
+        <v>2320</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="F73" s="18">
-        <v>1450.0</v>
-      </c>
-      <c r="G73" s="18">
-        <v>2200.0</v>
-      </c>
-      <c r="H73" s="18">
-        <v>3049.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="s">
+      <c r="J70" s="9">
+        <v>500</v>
+      </c>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+      <c r="A71" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B71" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C71" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D71" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E71" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="F74" s="18">
-        <v>1760.0</v>
-      </c>
-      <c r="G74" s="18">
-        <v>3500.0</v>
-      </c>
-      <c r="H74" s="18">
-        <v>4700.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="s">
+      <c r="F71" s="25">
+        <v>1200</v>
+      </c>
+      <c r="G71" s="25">
+        <v>1900</v>
+      </c>
+      <c r="H71" s="25">
+        <v>3300</v>
+      </c>
+      <c r="I71" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="J71" s="9">
+        <v>500</v>
+      </c>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+      <c r="A72" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="B72" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="C72" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="D72" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="F75" s="18">
-        <v>1500.0</v>
-      </c>
-      <c r="G75" s="18">
-        <v>2000.0</v>
-      </c>
-      <c r="H75" s="18">
-        <v>3700.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="s">
+      <c r="E72" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="F72" s="25">
+        <v>1300</v>
+      </c>
+      <c r="G72" s="25">
+        <v>1800</v>
+      </c>
+      <c r="H72" s="25">
+        <v>1950</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="J72" s="9">
+        <v>500</v>
+      </c>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+      <c r="A73" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="B73" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="E76" s="18" t="s">
+      <c r="C73" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="F76" s="18">
-        <v>893.0</v>
-      </c>
-      <c r="G76" s="18">
-        <v>1500.0</v>
-      </c>
-      <c r="H76" s="18">
-        <v>1764.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="s">
+      <c r="D73" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="E73" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="F73" s="25">
+        <v>1450</v>
+      </c>
+      <c r="G73" s="25">
+        <v>2200</v>
+      </c>
+      <c r="H73" s="25">
+        <v>3049</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D77" s="17" t="s">
+      <c r="J73" s="9">
+        <v>500</v>
+      </c>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+      <c r="A74" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="B74" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="F77" s="18">
-        <v>950.0</v>
-      </c>
-      <c r="G77" s="18">
-        <v>1880.0</v>
-      </c>
-      <c r="H77" s="18">
-        <v>1940.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="s">
+      <c r="C74" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="D74" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="E74" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="F74" s="25">
+        <v>1760</v>
+      </c>
+      <c r="G74" s="25">
+        <v>3500</v>
+      </c>
+      <c r="H74" s="25">
+        <v>4700</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="J74" s="9">
+        <v>500</v>
+      </c>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+      <c r="A75" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="F78" s="18">
-        <v>1200.0</v>
-      </c>
-      <c r="G78" s="18">
-        <v>2088.0</v>
-      </c>
-      <c r="H78" s="18">
-        <v>3686.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="s">
+      <c r="B75" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="C75" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="D75" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="E75" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="E79" s="18" t="s">
+      <c r="F75" s="25">
+        <v>1500</v>
+      </c>
+      <c r="G75" s="25">
+        <v>2000</v>
+      </c>
+      <c r="H75" s="25">
+        <v>3700</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F79" s="18">
-        <v>1000.0</v>
-      </c>
-      <c r="G79" s="18">
-        <v>1700.0</v>
-      </c>
-      <c r="H79" s="18">
-        <v>2600.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="s">
+      <c r="J75" s="9">
+        <v>500</v>
+      </c>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+      <c r="A76" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B76" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C76" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="D80" s="17" t="s">
+      <c r="D76" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="E80" s="17" t="s">
+      <c r="E76" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="F80" s="18">
-        <v>1500.0</v>
-      </c>
-      <c r="G80" s="18">
-        <v>1894.0</v>
-      </c>
-      <c r="H80" s="18">
-        <v>2500.0</v>
-      </c>
-    </row>
-    <row r="81" ht="36.75" customHeight="1">
-      <c r="A81" s="2" t="s">
+      <c r="F76" s="25">
+        <v>893</v>
+      </c>
+      <c r="G76" s="25">
+        <v>1500</v>
+      </c>
+      <c r="H76" s="25">
+        <v>1764</v>
+      </c>
+      <c r="I76" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="J76" s="9">
+        <v>500</v>
+      </c>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+      <c r="A77" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="B77" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="C77" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="E81" s="18" t="s">
+      <c r="D77" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="F81" s="18">
-        <v>1000.0</v>
-      </c>
-      <c r="G81" s="18">
-        <v>2147.0</v>
-      </c>
-      <c r="H81" s="18">
-        <v>2850.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="s">
+      <c r="E77" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="F77" s="25">
+        <v>950</v>
+      </c>
+      <c r="G77" s="25">
+        <v>1880</v>
+      </c>
+      <c r="H77" s="25">
+        <v>1940</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="J77" s="9">
+        <v>500</v>
+      </c>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+      <c r="A78" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="D82" s="17" t="s">
+      <c r="B78" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="E82" s="18" t="s">
+      <c r="C78" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="F82" s="18">
-        <v>856.0</v>
-      </c>
-      <c r="G82" s="18">
-        <v>1465.0</v>
-      </c>
-      <c r="H82" s="18">
-        <v>1935.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="C84" s="17"/>
+      <c r="D78" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="F78" s="25">
+        <v>1200</v>
+      </c>
+      <c r="G78" s="25">
+        <v>2088</v>
+      </c>
+      <c r="H78" s="25">
+        <v>3686</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="J78" s="9">
+        <v>500</v>
+      </c>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+      <c r="A79" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="F79" s="25">
+        <v>1000</v>
+      </c>
+      <c r="G79" s="25">
+        <v>1700</v>
+      </c>
+      <c r="H79" s="25">
+        <v>2600</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="J79" s="9">
+        <v>500</v>
+      </c>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+      <c r="A80" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="F80" s="25">
+        <v>1500</v>
+      </c>
+      <c r="G80" s="25">
+        <v>1894</v>
+      </c>
+      <c r="H80" s="25">
+        <v>2500</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J80" s="9">
+        <v>500</v>
+      </c>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="36.75">
+      <c r="A81" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="D81" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="F81" s="25">
+        <v>1000</v>
+      </c>
+      <c r="G81" s="25">
+        <v>2147</v>
+      </c>
+      <c r="H81" s="25">
+        <v>2850</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J81" s="9">
+        <v>500</v>
+      </c>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+      <c r="A82" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="F82" s="25">
+        <v>856</v>
+      </c>
+      <c r="G82" s="25">
+        <v>1465</v>
+      </c>
+      <c r="H82" s="25">
+        <v>1935</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="J82" s="9">
+        <v>500</v>
+      </c>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>